--- a/Src/Assets/ABRes/Data/ExcelData/Excel/Language.xlsx
+++ b/Src/Assets/ABRes/Data/ExcelData/Excel/Language.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22430"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93AD179D-2833-4E62-A07F-F2DB8A65AFD2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E8E9CB8-9465-4779-89F8-91050138ADEC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-27990" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LanguageSheet" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="7">
   <si>
     <t>Languagekey</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -432,10 +432,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D31"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="A15:F31"/>
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -615,272 +615,6 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A13" s="1">
-        <v>100011</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A14" s="1">
-        <v>100012</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A15" s="1">
-        <v>100013</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A16" s="1">
-        <v>100014</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A17" s="1">
-        <v>100015</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A18" s="1">
-        <v>100016</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A19" s="1">
-        <v>100017</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A20" s="1">
-        <v>100018</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A21" s="1">
-        <v>100019</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A22" s="1">
-        <v>100020</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A23" s="1">
-        <v>100021</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A24" s="1">
-        <v>100022</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A25" s="1">
-        <v>100023</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A26" s="1">
-        <v>100024</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A27" s="1">
-        <v>100025</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A28" s="1">
-        <v>100026</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A29" s="1">
-        <v>100027</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A30" s="1">
-        <v>100028</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A31" s="1">
-        <v>100029</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
